--- a/TaxOrg/Документы/План работ на 26.02-10.03.2015.xlsx
+++ b/TaxOrg/Документы/План работ на 26.02-10.03.2015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Visual Studio 2013\Projects\TaxOrg\TaxOrg\Документы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Taxorg\TaxOrg\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -527,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="7">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">

--- a/TaxOrg/Документы/План работ на 26.02-10.03.2015.xlsx
+++ b/TaxOrg/Документы/План работ на 26.02-10.03.2015.xlsx
@@ -447,7 +447,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">

--- a/TaxOrg/Документы/План работ на 26.02-10.03.2015.xlsx
+++ b/TaxOrg/Документы/План работ на 26.02-10.03.2015.xlsx
@@ -108,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,12 +118,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -140,7 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -153,14 +147,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -447,7 +433,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,33 +486,42 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="4">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C3" s="4">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4">
         <v>2</v>
       </c>
+      <c r="E3" s="4">
+        <v>100</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="4">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
         <v>0</v>
       </c>
     </row>

--- a/TaxOrg/Документы/План работ на 26.02-10.03.2015.xlsx
+++ b/TaxOrg/Документы/План работ на 26.02-10.03.2015.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,31 +526,39 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>16</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="4">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4">
         <v>5</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -574,31 +582,39 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
         <v>7</v>
       </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -616,25 +632,35 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="4">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
         <v>10</v>
       </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>11</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
